--- a/biology/Zoologie/Cosmophasis_lami/Cosmophasis_lami.xlsx
+++ b/biology/Zoologie/Cosmophasis_lami/Cosmophasis_lami.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cosmophasis lami est une espèce d'araignées aranéomorphes de la famille des Salticidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cosmophasis lami est une espèce d'araignées aranéomorphes de la famille des Salticidae.
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre au Japon, à Taïwan, aux Philippines, en Indonésie, à Singapour et aux Keeling[1].
-Elle a été introduite aux Fidji, à Hawaï, en Polynésie française et aux Seychelles[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre au Japon, à Taïwan, aux Philippines, en Indonésie, à Singapour et aux Keeling.
+Elle a été introduite aux Fidji, à Hawaï, en Polynésie française et aux Seychelles.
 </t>
         </is>
       </c>
@@ -543,10 +557,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 5,3 à 5,6 mm[2].
-La carapace du mâle décrit par Żabka et Waldock en 2012 mesure 1,97 mm sur 1,45 mm et l'abdomen 2,70 mm de long sur 0,98 mm et la carapace de la femelle mesure 2,28 mm sur 1,71 mm et l'abdomen 3,95 mm de long sur 1,82 mm[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 5,3 à 5,6 mm.
+La carapace du mâle décrit par Żabka et Waldock en 2012 mesure 1,97 mm sur 1,45 mm et l'abdomen 2,70 mm de long sur 0,98 mm et la carapace de la femelle mesure 2,28 mm sur 1,71 mm et l'abdomen 3,95 mm de long sur 1,82 mm.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a été décrite par Berry, Beatty et Prószyński en 1997.
 </t>
@@ -606,7 +624,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, Lami Beach.
 </t>
@@ -637,7 +657,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Berry, Beatty &amp; Prószyński, 1997 : « Salticidae of the Pacific Islands. II. Distribution of nine genera, with descriptions of eleven new species. » The Journal of Arachnology, vol. 25, no 2, p. 109-136 (texte intégral).</t>
         </is>
